--- a/Information/conclusion.xlsx
+++ b/Information/conclusion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\630039\CRR Validate\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34D5F8C1-880B-44EE-9906-41CC52A8BC17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D54A5B4-A34C-4DBD-8CFB-E47E997F88A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{321AAB0A-5B9C-4A38-8F98-5C65A6DA9A49}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>CRR-Corporate</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>CRR-SME</t>
+  </si>
+  <si>
+    <t>PSI</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -103,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -111,22 +117,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -443,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7FB07B-4BC2-47F1-9479-551095601177}">
-  <dimension ref="C8:E18"/>
+  <dimension ref="B7:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:E18"/>
+      <selection activeCell="C16" sqref="C16:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -458,91 +546,124 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="8">
         <v>2563</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="9">
         <v>2564</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="3" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="11">
         <v>0.44219999999999998</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="12">
         <v>0.7016</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="11">
         <v>0.45029999999999998</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="12">
         <v>0.6835</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="3" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="C11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="12">
+        <v>8.0299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="3:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
+    <row r="16" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="8">
         <v>2563</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="9">
         <v>2564</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="3" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="11">
         <v>0.43959999999999999</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="12">
         <v>0.71909999999999996</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="3" t="s">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="11">
         <v>0.61309999999999998</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E18" s="12">
         <v>0.72940000000000005</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="3" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Information/conclusion.xlsx
+++ b/Information/conclusion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\630039\CRR Validate\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D54A5B4-A34C-4DBD-8CFB-E47E997F88A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758133B5-B9BE-4EC9-9E82-33FCE2D3CF5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{321AAB0A-5B9C-4A38-8F98-5C65A6DA9A49}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>CRR-Corporate</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>ดีมาก</t>
+  </si>
+  <si>
+    <t>มีการเปลียนแปลงเล็กน้อย</t>
+  </si>
+  <si>
+    <t>การแจงแจงทั้งสองไม่แตกต่างกัน</t>
   </si>
 </sst>
 </file>
@@ -104,12 +113,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,72 +127,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -191,30 +145,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -232,6 +175,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>512799</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3801AA5-C5B7-497F-A200-7FA075C7E49F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7705725" y="1200151"/>
+          <a:ext cx="4084674" cy="2143124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>588999</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C909742-2F26-4595-A043-CCC5BCA44798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11896725" y="1200150"/>
+          <a:ext cx="4084674" cy="2158171"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>547857</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC380DD-2779-4D18-8B75-A82B02FE077F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="3286125"/>
+          <a:ext cx="4157832" cy="1950889"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7FB07B-4BC2-47F1-9479-551095601177}">
-  <dimension ref="B7:F20"/>
+  <dimension ref="B7:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:E20"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,131 +623,194 @@
     <col min="3" max="3" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="26.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <v>2563</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>2564</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="4">
+        <v>2563</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="6">
         <v>0.44219999999999998</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="6">
         <v>0.7016</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="6">
         <v>0.45029999999999998</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="6">
         <v>0.6835</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="6">
         <v>8.0299999999999996E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+      <c r="F12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D14" s="4">
         <v>2563</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E14" s="4">
         <v>2564</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="10" t="s">
+      <c r="F14" s="4">
+        <v>2563</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D15" s="6">
         <v>0.43959999999999999</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E15" s="6">
         <v>0.71909999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="10" t="s">
+      <c r="F15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D16" s="6">
         <v>0.61309999999999998</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E16" s="6">
         <v>0.72940000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="10" t="s">
+      <c r="F16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E17" s="6">
         <v>0.1009</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="3" t="s">
+      <c r="F17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>